--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Oracle Financial Services Software Ltd/Pruned_Excel/Semi_Final/Oracle Financial Services Software Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Oracle Financial Services Software Ltd/Pruned_Excel/Semi_Final/Oracle Financial Services Software Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Oracle Financial Services Software(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Oracle Financial Services Software(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Oracle Financial Services Software(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,46 +278,7 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>37.44</v>
-      </c>
-      <c r="C2">
-        <v>1087.75</v>
       </c>
       <c r="D2">
         <v>1087.75</v>
       </c>
       <c r="E2">
+        <v>1087.75</v>
+      </c>
+      <c r="F2">
         <v>1125.19</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>355.86</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>401.95</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1527.13</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>102.01</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>140.71</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>183.38</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1343.76</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1527.13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>38.14</v>
-      </c>
-      <c r="C3">
-        <v>1324.59</v>
       </c>
       <c r="D3">
         <v>1324.59</v>
       </c>
       <c r="E3">
+        <v>1324.59</v>
+      </c>
+      <c r="F3">
         <v>1362.73</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>441.64</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>490.55</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1853.28</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>122.18</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>221.53</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>269.96</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1583.32</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1853.28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>41.64</v>
-      </c>
-      <c r="C4">
-        <v>2316.66</v>
       </c>
       <c r="D4">
         <v>2316.66</v>
       </c>
       <c r="E4">
+        <v>2316.66</v>
+      </c>
+      <c r="F4">
         <v>2358.31</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>593.04</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>628.37</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3026.85</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>108.11</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>276.39</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>898.74</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2128.1</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3026.85</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>41.87</v>
-      </c>
-      <c r="C5">
-        <v>2770.75</v>
       </c>
       <c r="D5">
         <v>2770.75</v>
       </c>
       <c r="E5">
+        <v>2770.75</v>
+      </c>
+      <c r="F5">
         <v>2812.62</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>427.97</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>471.31</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3283.96</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>139.2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>311.43</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1057.01</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2226.94</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3283.96</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>41.88</v>
-      </c>
-      <c r="C6">
-        <v>3467.53</v>
       </c>
       <c r="D6">
         <v>3467.53</v>
       </c>
       <c r="E6">
+        <v>3467.53</v>
+      </c>
+      <c r="F6">
         <v>3509.41</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>642.13</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>708.03</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4217.45</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>195.39</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>337.94</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1088.58</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3128.87</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4217.45</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>41.93</v>
-      </c>
-      <c r="C7">
-        <v>4135.33</v>
       </c>
       <c r="D7">
         <v>4135.33</v>
       </c>
       <c r="E7">
+        <v>4135.33</v>
+      </c>
+      <c r="F7">
         <v>4177.26</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>530.21</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>610.75</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4788.82</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>165.36</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>336.98</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1100.12</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3688.7</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4788.82</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>41.95</v>
-      </c>
-      <c r="C8">
-        <v>5108.31</v>
       </c>
       <c r="D8">
         <v>5108.31</v>
       </c>
       <c r="E8">
+        <v>5108.31</v>
+      </c>
+      <c r="F8">
         <v>5150.25</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>545.04</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>627.13</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5822.59</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>309.01</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>364.98</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1880.31</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3942.29</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>5822.59</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>41.99</v>
-      </c>
-      <c r="C9">
-        <v>6204.93</v>
       </c>
       <c r="D9">
         <v>6204.93</v>
       </c>
       <c r="E9">
+        <v>6204.93</v>
+      </c>
+      <c r="F9">
         <v>6246.92</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>721.59</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>820.21</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7113.82</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>355.53</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>409.97</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1754.9</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5358.92</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>7113.82</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>42.03</v>
-      </c>
-      <c r="C10">
-        <v>7250.31</v>
       </c>
       <c r="D10">
         <v>7250.31</v>
       </c>
       <c r="E10">
+        <v>7250.31</v>
+      </c>
+      <c r="F10">
         <v>7292.35</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>867.45</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>973.09</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8325.889999999999</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>373.98</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>387.25</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1858.83</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>6467.06</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>8325.889999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>42.07</v>
-      </c>
-      <c r="C11">
-        <v>8412.83</v>
       </c>
       <c r="D11">
         <v>8412.83</v>
       </c>
       <c r="E11">
+        <v>8412.83</v>
+      </c>
+      <c r="F11">
         <v>8454.9</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1106.56</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1251.33</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>9768.950000000001</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>338.13</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>350.57</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1752.96</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>8015.99</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>9768.950000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>42.31</v>
-      </c>
-      <c r="C12">
-        <v>2948.36</v>
       </c>
       <c r="D12">
         <v>2948.36</v>
       </c>
       <c r="E12">
+        <v>2948.36</v>
+      </c>
+      <c r="F12">
         <v>2990.67</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>760.47</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2737.18</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5803.25</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>297.27</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>297.57</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1784.57</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4018.68</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>5803.25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>42.43</v>
-      </c>
-      <c r="C13">
-        <v>3914.83</v>
       </c>
       <c r="D13">
         <v>3914.83</v>
       </c>
       <c r="E13">
+        <v>3914.83</v>
+      </c>
+      <c r="F13">
         <v>3957.26</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>956.8200000000001</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>983.38</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5022.46</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>251.39</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>264.04</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1702.78</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3319.68</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5022.46</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>42.55</v>
-      </c>
-      <c r="C14">
-        <v>2633.37</v>
       </c>
       <c r="D14">
         <v>2633.37</v>
       </c>
       <c r="E14">
+        <v>2633.37</v>
+      </c>
+      <c r="F14">
         <v>2675.92</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2328.57</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2336.12</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5102.32</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>242.81</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>253.67</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1813.27</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3289.05</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5102.32</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>42.71</v>
-      </c>
-      <c r="C15">
-        <v>3764.4</v>
       </c>
       <c r="D15">
         <v>3764.4</v>
       </c>
       <c r="E15">
+        <v>3764.4</v>
+      </c>
+      <c r="F15">
         <v>3807.1</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>682.75</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>738.29</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4650.7</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>210.98</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>223.63</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1806.03</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2844.67</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4650.7</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>42.89</v>
-      </c>
-      <c r="C16">
-        <v>3672.7</v>
       </c>
       <c r="D16">
         <v>3672.7</v>
       </c>
       <c r="E16">
+        <v>3672.7</v>
+      </c>
+      <c r="F16">
         <v>3880.33</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>324.85</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>456.08</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4445.38</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>238.57</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>249.17</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1906.67</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2538.71</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4445.38</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>42.94</v>
-      </c>
-      <c r="C17">
-        <v>5292.68</v>
       </c>
       <c r="D17">
         <v>5292.68</v>
       </c>
       <c r="E17">
+        <v>5292.68</v>
+      </c>
+      <c r="F17">
         <v>5508.3</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>293.3</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>415.04</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>6066.76</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>283.65</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>293.87</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2078.81</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3987.95</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>6066.76</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>43.03</v>
-      </c>
-      <c r="C18">
-        <v>5451.52</v>
       </c>
       <c r="D18">
         <v>5451.52</v>
       </c>
       <c r="E18">
+        <v>5451.52</v>
+      </c>
+      <c r="F18">
         <v>5645.99</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>265.22</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>391.34</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>6187.56</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>221.65</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>231.94</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2053.52</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>4134.05</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>6187.56</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>43.12</v>
-      </c>
-      <c r="C19">
-        <v>5603.21</v>
       </c>
       <c r="D19">
         <v>5603.21</v>
       </c>
       <c r="E19">
+        <v>5603.21</v>
+      </c>
+      <c r="F19">
         <v>5802.46</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>300.72</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>437.17</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>6441.23</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>216.72</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>230.54</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2136.57</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>4304.66</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>6441.23</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>43.2</v>
-      </c>
-      <c r="C20">
-        <v>5808.96</v>
       </c>
       <c r="D20">
         <v>5808.96</v>
       </c>
       <c r="E20">
+        <v>5808.96</v>
+      </c>
+      <c r="F20">
         <v>6005.42</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>290.77</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>442.72</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6638.48</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>198.35</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>208.57</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2169.02</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>4469.47</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>6638.48</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>43.34</v>
-      </c>
-      <c r="C21">
-        <v>6008.23</v>
       </c>
       <c r="D21">
         <v>6008.23</v>
       </c>
       <c r="E21">
+        <v>6008.23</v>
+      </c>
+      <c r="F21">
         <v>6184.21</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>343.05</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>508.16</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>6886.74</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>166.1</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>178.8</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2126.67</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4760.06</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>6886.74</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>247.11</v>
+      </c>
+      <c r="D2">
+        <v>66.63</v>
+      </c>
+      <c r="E2">
+        <v>-164.04</v>
+      </c>
+      <c r="F2">
+        <v>-28.08</v>
+      </c>
+      <c r="G2">
+        <v>1.22</v>
+      </c>
+      <c r="H2">
+        <v>-124.27</v>
+      </c>
+      <c r="I2">
+        <v>239.59</v>
+      </c>
+      <c r="J2">
+        <v>115.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>289.51</v>
+      </c>
+      <c r="D3">
+        <v>113</v>
+      </c>
+      <c r="E3">
+        <v>-140.49</v>
+      </c>
+      <c r="F3">
+        <v>-8.83</v>
+      </c>
+      <c r="G3">
+        <v>0.57</v>
+      </c>
+      <c r="H3">
+        <v>-35.75</v>
+      </c>
+      <c r="I3">
+        <v>115.32</v>
+      </c>
+      <c r="J3">
+        <v>79.56999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>381.05</v>
+      </c>
+      <c r="D4">
+        <v>-41.97</v>
+      </c>
+      <c r="E4">
+        <v>-551.8</v>
+      </c>
+      <c r="F4">
+        <v>631.67</v>
+      </c>
+      <c r="G4">
+        <v>0.43</v>
+      </c>
+      <c r="H4">
+        <v>38.33</v>
+      </c>
+      <c r="I4">
+        <v>79.56999999999999</v>
+      </c>
+      <c r="J4">
+        <v>117.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>431.54</v>
+      </c>
+      <c r="D5">
+        <v>394.23</v>
+      </c>
+      <c r="E5">
+        <v>-407.63</v>
+      </c>
+      <c r="F5">
+        <v>-5.07</v>
+      </c>
+      <c r="G5">
+        <v>-2.88</v>
+      </c>
+      <c r="H5">
+        <v>-21.34</v>
+      </c>
+      <c r="I5">
+        <v>117.91</v>
+      </c>
+      <c r="J5">
+        <v>96.56999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>732.29</v>
+      </c>
+      <c r="D6">
+        <v>432.24</v>
+      </c>
+      <c r="E6">
+        <v>-382.47</v>
+      </c>
+      <c r="F6">
+        <v>-0.14</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>49.63</v>
+      </c>
+      <c r="I6">
+        <v>106.08</v>
+      </c>
+      <c r="J6">
+        <v>155.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>747.37</v>
+      </c>
+      <c r="D7">
+        <v>692.7</v>
+      </c>
+      <c r="E7">
+        <v>-433.06</v>
+      </c>
+      <c r="F7">
+        <v>6.58</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>266.23</v>
+      </c>
+      <c r="I7">
+        <v>122.07</v>
+      </c>
+      <c r="J7">
+        <v>388.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>1034.39</v>
+      </c>
+      <c r="D8">
+        <v>714.99</v>
+      </c>
+      <c r="E8">
+        <v>-1005.44</v>
+      </c>
+      <c r="F8">
+        <v>3.06</v>
+      </c>
+      <c r="G8">
+        <v>6.84</v>
+      </c>
+      <c r="H8">
+        <v>-280.55</v>
+      </c>
+      <c r="I8">
+        <v>388.3</v>
+      </c>
+      <c r="J8">
+        <v>107.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1565.89</v>
+      </c>
+      <c r="D9">
+        <v>437.58</v>
+      </c>
+      <c r="E9">
+        <v>-387.27</v>
+      </c>
+      <c r="F9">
+        <v>6.44</v>
+      </c>
+      <c r="G9">
+        <v>-4.63</v>
+      </c>
+      <c r="H9">
+        <v>52.13</v>
+      </c>
+      <c r="I9">
+        <v>107.75</v>
+      </c>
+      <c r="J9">
+        <v>159.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>1504.76</v>
+      </c>
+      <c r="D10">
+        <v>1146.12</v>
+      </c>
+      <c r="E10">
+        <v>-1225.33</v>
+      </c>
+      <c r="F10">
+        <v>15.2</v>
+      </c>
+      <c r="G10">
+        <v>-9.01</v>
+      </c>
+      <c r="H10">
+        <v>-73.02</v>
+      </c>
+      <c r="I10">
+        <v>159.88</v>
+      </c>
+      <c r="J10">
+        <v>86.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>1730.81</v>
+      </c>
+      <c r="D11">
+        <v>627.77</v>
+      </c>
+      <c r="E11">
+        <v>-645.24</v>
+      </c>
+      <c r="F11">
+        <v>14.09</v>
+      </c>
+      <c r="G11">
+        <v>-10.35</v>
+      </c>
+      <c r="H11">
+        <v>-13.72</v>
+      </c>
+      <c r="I11">
+        <v>86.86</v>
+      </c>
+      <c r="J11">
+        <v>73.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>1613.63</v>
+      </c>
+      <c r="D12">
+        <v>974.35</v>
+      </c>
+      <c r="E12">
+        <v>3732.35</v>
+      </c>
+      <c r="F12">
+        <v>-4689.58</v>
+      </c>
+      <c r="G12">
+        <v>0.63</v>
+      </c>
+      <c r="H12">
+        <v>17.75</v>
+      </c>
+      <c r="I12">
+        <v>73.14</v>
+      </c>
+      <c r="J12">
+        <v>90.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>1468.1</v>
+      </c>
+      <c r="D13">
+        <v>736.92</v>
+      </c>
+      <c r="E13">
+        <v>1088.53</v>
+      </c>
+      <c r="F13">
+        <v>-1779.17</v>
+      </c>
+      <c r="G13">
+        <v>-1.34</v>
+      </c>
+      <c r="H13">
+        <v>44.93</v>
+      </c>
+      <c r="I13">
+        <v>90.89</v>
+      </c>
+      <c r="J13">
+        <v>135.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>1682.59</v>
+      </c>
+      <c r="D14">
+        <v>704.58</v>
+      </c>
+      <c r="E14">
+        <v>2181.66</v>
+      </c>
+      <c r="F14">
+        <v>-925.4</v>
+      </c>
+      <c r="G14">
+        <v>2.41</v>
+      </c>
+      <c r="H14">
+        <v>1963.25</v>
+      </c>
+      <c r="I14">
+        <v>135.82</v>
+      </c>
+      <c r="J14">
+        <v>2099.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1486.91</v>
+      </c>
+      <c r="D15">
+        <v>1066.91</v>
+      </c>
+      <c r="E15">
+        <v>-1290.91</v>
+      </c>
+      <c r="F15">
+        <v>-1668.25</v>
+      </c>
+      <c r="G15">
+        <v>4.36</v>
+      </c>
+      <c r="H15">
+        <v>-1887.89</v>
+      </c>
+      <c r="I15">
+        <v>2099.08</v>
+      </c>
+      <c r="J15">
+        <v>211.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>1986.42</v>
+      </c>
+      <c r="D16">
+        <v>1052.68</v>
+      </c>
+      <c r="E16">
+        <v>274.68</v>
+      </c>
+      <c r="F16">
+        <v>-1267</v>
+      </c>
+      <c r="G16">
+        <v>-0.18</v>
+      </c>
+      <c r="H16">
+        <v>60.18</v>
+      </c>
+      <c r="I16">
+        <v>211.19</v>
+      </c>
+      <c r="J16">
+        <v>271.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>2008.58</v>
+      </c>
+      <c r="D17">
+        <v>1484.67</v>
+      </c>
+      <c r="E17">
+        <v>-1531.42</v>
+      </c>
+      <c r="F17">
+        <v>-33.46</v>
+      </c>
+      <c r="G17">
+        <v>8.23</v>
+      </c>
+      <c r="H17">
+        <v>-71.98</v>
+      </c>
+      <c r="I17">
+        <v>271.37</v>
+      </c>
+      <c r="J17">
+        <v>199.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>2187.88</v>
+      </c>
+      <c r="D18">
+        <v>1544.78</v>
+      </c>
+      <c r="E18">
+        <v>51.72</v>
+      </c>
+      <c r="F18">
+        <v>-1569.95</v>
+      </c>
+      <c r="G18">
+        <v>-1.11</v>
+      </c>
+      <c r="H18">
+        <v>25.44</v>
+      </c>
+      <c r="I18">
+        <v>199.39</v>
+      </c>
+      <c r="J18">
+        <v>224.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>2376.15</v>
+      </c>
+      <c r="D19">
+        <v>1598.11</v>
+      </c>
+      <c r="E19">
+        <v>6.35</v>
+      </c>
+      <c r="F19">
+        <v>-1712.73</v>
+      </c>
+      <c r="G19">
+        <v>2.37</v>
+      </c>
+      <c r="H19">
+        <v>-105.89</v>
+      </c>
+      <c r="I19">
+        <v>224.82</v>
+      </c>
+      <c r="J19">
+        <v>118.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>2343.2</v>
+      </c>
+      <c r="D20">
+        <v>1505.74</v>
+      </c>
+      <c r="E20">
+        <v>161.03</v>
+      </c>
+      <c r="F20">
+        <v>-1650.7</v>
+      </c>
+      <c r="G20">
+        <v>5.84</v>
+      </c>
+      <c r="H20">
+        <v>21.91</v>
+      </c>
+      <c r="I20">
+        <v>118.93</v>
+      </c>
+      <c r="J20">
+        <v>140.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>247.11</v>
-      </c>
-      <c r="C2">
-        <v>66.63</v>
-      </c>
-      <c r="D2">
-        <v>-164.04</v>
-      </c>
-      <c r="E2">
-        <v>-28.08</v>
-      </c>
-      <c r="F2">
-        <v>1.22</v>
-      </c>
-      <c r="G2">
-        <v>-124.27</v>
-      </c>
-      <c r="H2">
-        <v>239.59</v>
-      </c>
-      <c r="I2">
-        <v>115.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>289.51</v>
-      </c>
-      <c r="C3">
-        <v>113</v>
-      </c>
-      <c r="D3">
-        <v>-140.49</v>
-      </c>
-      <c r="E3">
-        <v>-8.83</v>
-      </c>
-      <c r="F3">
-        <v>0.57</v>
-      </c>
-      <c r="G3">
-        <v>-35.75</v>
-      </c>
-      <c r="H3">
-        <v>115.32</v>
-      </c>
-      <c r="I3">
-        <v>79.56999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>381.05</v>
-      </c>
-      <c r="C4">
-        <v>-41.97</v>
-      </c>
-      <c r="D4">
-        <v>-551.8</v>
-      </c>
-      <c r="E4">
-        <v>631.67</v>
-      </c>
-      <c r="F4">
-        <v>0.43</v>
-      </c>
-      <c r="G4">
-        <v>38.33</v>
-      </c>
-      <c r="H4">
-        <v>79.56999999999999</v>
-      </c>
-      <c r="I4">
-        <v>117.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>431.54</v>
-      </c>
-      <c r="C5">
-        <v>394.23</v>
-      </c>
-      <c r="D5">
-        <v>-407.63</v>
-      </c>
-      <c r="E5">
-        <v>-5.07</v>
-      </c>
-      <c r="F5">
-        <v>-2.88</v>
-      </c>
-      <c r="G5">
-        <v>-21.34</v>
-      </c>
-      <c r="H5">
-        <v>117.91</v>
-      </c>
-      <c r="I5">
-        <v>96.56999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>732.29</v>
-      </c>
-      <c r="C6">
-        <v>432.24</v>
-      </c>
-      <c r="D6">
-        <v>-382.47</v>
-      </c>
-      <c r="E6">
-        <v>-0.14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>49.63</v>
-      </c>
-      <c r="H6">
-        <v>106.08</v>
-      </c>
-      <c r="I6">
-        <v>155.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>747.37</v>
-      </c>
-      <c r="C7">
-        <v>692.7</v>
-      </c>
-      <c r="D7">
-        <v>-433.06</v>
-      </c>
-      <c r="E7">
-        <v>6.58</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>266.23</v>
-      </c>
-      <c r="H7">
-        <v>122.07</v>
-      </c>
-      <c r="I7">
-        <v>388.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>1034.39</v>
-      </c>
-      <c r="C8">
-        <v>714.99</v>
-      </c>
-      <c r="D8">
-        <v>-1005.44</v>
-      </c>
-      <c r="E8">
-        <v>3.06</v>
-      </c>
-      <c r="F8">
-        <v>6.84</v>
-      </c>
-      <c r="G8">
-        <v>-280.55</v>
-      </c>
-      <c r="H8">
-        <v>388.3</v>
-      </c>
-      <c r="I8">
-        <v>107.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1565.89</v>
-      </c>
-      <c r="C9">
-        <v>437.58</v>
-      </c>
-      <c r="D9">
-        <v>-387.27</v>
-      </c>
-      <c r="E9">
-        <v>6.44</v>
-      </c>
-      <c r="F9">
-        <v>-4.63</v>
-      </c>
-      <c r="G9">
-        <v>52.13</v>
-      </c>
-      <c r="H9">
-        <v>107.75</v>
-      </c>
-      <c r="I9">
-        <v>159.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>1504.76</v>
-      </c>
-      <c r="C10">
-        <v>1146.12</v>
-      </c>
-      <c r="D10">
-        <v>-1225.33</v>
-      </c>
-      <c r="E10">
-        <v>15.2</v>
-      </c>
-      <c r="F10">
-        <v>-9.01</v>
-      </c>
-      <c r="G10">
-        <v>-73.02</v>
-      </c>
-      <c r="H10">
-        <v>159.88</v>
-      </c>
-      <c r="I10">
-        <v>86.86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1730.81</v>
-      </c>
-      <c r="C11">
-        <v>627.77</v>
-      </c>
-      <c r="D11">
-        <v>-645.24</v>
-      </c>
-      <c r="E11">
-        <v>14.09</v>
-      </c>
-      <c r="F11">
-        <v>-10.35</v>
-      </c>
-      <c r="G11">
-        <v>-13.72</v>
-      </c>
-      <c r="H11">
-        <v>86.86</v>
-      </c>
-      <c r="I11">
-        <v>73.14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>1613.63</v>
-      </c>
-      <c r="C12">
-        <v>974.35</v>
-      </c>
-      <c r="D12">
-        <v>3732.35</v>
-      </c>
-      <c r="E12">
-        <v>-4689.58</v>
-      </c>
-      <c r="F12">
-        <v>0.63</v>
-      </c>
-      <c r="G12">
-        <v>17.75</v>
-      </c>
-      <c r="H12">
-        <v>73.14</v>
-      </c>
-      <c r="I12">
-        <v>90.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>1468.1</v>
-      </c>
-      <c r="C13">
-        <v>736.92</v>
-      </c>
-      <c r="D13">
-        <v>1088.53</v>
-      </c>
-      <c r="E13">
-        <v>-1779.17</v>
-      </c>
-      <c r="F13">
-        <v>-1.34</v>
-      </c>
-      <c r="G13">
-        <v>44.93</v>
-      </c>
-      <c r="H13">
-        <v>90.89</v>
-      </c>
-      <c r="I13">
-        <v>135.82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>1682.59</v>
-      </c>
-      <c r="C14">
-        <v>704.58</v>
-      </c>
-      <c r="D14">
-        <v>2181.66</v>
-      </c>
-      <c r="E14">
-        <v>-925.4</v>
-      </c>
-      <c r="F14">
-        <v>2.41</v>
-      </c>
-      <c r="G14">
-        <v>1963.25</v>
-      </c>
-      <c r="H14">
-        <v>135.82</v>
-      </c>
-      <c r="I14">
-        <v>2099.08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>1486.91</v>
-      </c>
-      <c r="C15">
-        <v>1066.91</v>
-      </c>
-      <c r="D15">
-        <v>-1290.91</v>
-      </c>
-      <c r="E15">
-        <v>-1668.25</v>
-      </c>
-      <c r="F15">
-        <v>4.36</v>
-      </c>
-      <c r="G15">
-        <v>-1887.89</v>
-      </c>
-      <c r="H15">
-        <v>2099.08</v>
-      </c>
-      <c r="I15">
-        <v>211.19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>1986.42</v>
-      </c>
-      <c r="C16">
-        <v>1052.68</v>
-      </c>
-      <c r="D16">
-        <v>274.68</v>
-      </c>
-      <c r="E16">
-        <v>-1267</v>
-      </c>
-      <c r="F16">
-        <v>-0.18</v>
-      </c>
-      <c r="G16">
-        <v>60.18</v>
-      </c>
-      <c r="H16">
-        <v>211.19</v>
-      </c>
-      <c r="I16">
-        <v>271.37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>2008.58</v>
-      </c>
-      <c r="C17">
-        <v>1484.67</v>
-      </c>
-      <c r="D17">
-        <v>-1531.42</v>
-      </c>
-      <c r="E17">
-        <v>-33.46</v>
-      </c>
-      <c r="F17">
-        <v>8.23</v>
-      </c>
-      <c r="G17">
-        <v>-71.98</v>
-      </c>
-      <c r="H17">
-        <v>271.37</v>
-      </c>
-      <c r="I17">
-        <v>199.38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>2187.88</v>
-      </c>
-      <c r="C18">
-        <v>1544.78</v>
-      </c>
-      <c r="D18">
-        <v>51.72</v>
-      </c>
-      <c r="E18">
-        <v>-1569.95</v>
-      </c>
-      <c r="F18">
-        <v>-1.11</v>
-      </c>
-      <c r="G18">
-        <v>25.44</v>
-      </c>
-      <c r="H18">
-        <v>199.39</v>
-      </c>
-      <c r="I18">
-        <v>224.82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>2376.15</v>
-      </c>
-      <c r="C19">
-        <v>1598.11</v>
-      </c>
-      <c r="D19">
-        <v>6.35</v>
-      </c>
-      <c r="E19">
-        <v>-1712.73</v>
-      </c>
-      <c r="F19">
-        <v>2.37</v>
-      </c>
-      <c r="G19">
-        <v>-105.89</v>
-      </c>
-      <c r="H19">
-        <v>224.82</v>
-      </c>
-      <c r="I19">
-        <v>118.93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>2343.2</v>
-      </c>
-      <c r="C20">
-        <v>1505.74</v>
-      </c>
-      <c r="D20">
-        <v>161.03</v>
-      </c>
-      <c r="E20">
-        <v>-1650.7</v>
-      </c>
-      <c r="F20">
-        <v>5.84</v>
-      </c>
-      <c r="G20">
-        <v>21.91</v>
-      </c>
-      <c r="H20">
-        <v>118.93</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>2636.16</v>
+      </c>
+      <c r="D21">
+        <v>1643.63</v>
+      </c>
+      <c r="E21">
+        <v>1524.97</v>
+      </c>
+      <c r="F21">
+        <v>-1943.42</v>
+      </c>
+      <c r="G21">
+        <v>0.46</v>
+      </c>
+      <c r="H21">
+        <v>1225.65</v>
+      </c>
+      <c r="I21">
         <v>140.83</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>2636.16</v>
-      </c>
-      <c r="C21">
-        <v>1643.63</v>
-      </c>
-      <c r="D21">
-        <v>1524.97</v>
-      </c>
-      <c r="E21">
-        <v>-1943.42</v>
-      </c>
-      <c r="F21">
-        <v>0.46</v>
-      </c>
-      <c r="G21">
-        <v>1225.65</v>
-      </c>
-      <c r="H21">
-        <v>140.83</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>1366.48</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>902.86</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>902.86</v>
@@ -2328,46 +2421,46 @@
         <v>902.86</v>
       </c>
       <c r="E2">
+        <v>902.86</v>
+      </c>
+      <c r="F2">
         <v>17.78</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>920.64</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>23.76</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>395.51</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>26.59</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>221.32</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>673.53</v>
-      </c>
-      <c r="M2">
-        <v>247.11</v>
       </c>
       <c r="N2">
         <v>247.11</v>
       </c>
       <c r="O2">
+        <v>247.11</v>
+      </c>
+      <c r="P2">
         <v>49.4</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>49.47</v>
-      </c>
-      <c r="R2">
-        <v>197.64</v>
       </c>
       <c r="S2">
         <v>197.64</v>
@@ -2376,18 +2469,21 @@
         <v>197.64</v>
       </c>
       <c r="U2">
-        <v>26.39</v>
+        <v>197.64</v>
       </c>
       <c r="V2">
         <v>26.39</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>1153.82</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1153.82</v>
@@ -2396,66 +2492,69 @@
         <v>1153.82</v>
       </c>
       <c r="E3">
+        <v>1153.82</v>
+      </c>
+      <c r="F3">
         <v>29.92</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1183.74</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>36.68</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>518.5599999999999</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>38.78</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>290.13</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>894.23</v>
-      </c>
-      <c r="M3">
-        <v>289.51</v>
       </c>
       <c r="N3">
         <v>289.51</v>
       </c>
       <c r="O3">
+        <v>289.51</v>
+      </c>
+      <c r="P3">
         <v>46.21</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-6.96</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>44.76</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>244.75</v>
-      </c>
-      <c r="S3">
-        <v>240.8</v>
       </c>
       <c r="T3">
         <v>240.8</v>
       </c>
       <c r="U3">
-        <v>31.56</v>
+        <v>240.8</v>
       </c>
       <c r="V3">
         <v>31.56</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1552.34</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>1552.34</v>
@@ -2464,66 +2563,69 @@
         <v>1552.34</v>
       </c>
       <c r="E4">
+        <v>1552.34</v>
+      </c>
+      <c r="F4">
         <v>34.83</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1587.17</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>50.61</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>715.99</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>56.54</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>370.25</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1206.13</v>
-      </c>
-      <c r="M4">
-        <v>381.05</v>
       </c>
       <c r="N4">
         <v>381.05</v>
       </c>
       <c r="O4">
+        <v>381.05</v>
+      </c>
+      <c r="P4">
         <v>25.1</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-6.06</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>26.37</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>354.67</v>
-      </c>
-      <c r="S4">
-        <v>354.55</v>
       </c>
       <c r="T4">
         <v>354.55</v>
       </c>
       <c r="U4">
-        <v>42.57</v>
+        <v>354.55</v>
       </c>
       <c r="V4">
         <v>42.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>42.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>1792.97</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1792.97</v>
@@ -2532,46 +2634,46 @@
         <v>1792.97</v>
       </c>
       <c r="E5">
+        <v>1792.97</v>
+      </c>
+      <c r="F5">
         <v>36.65</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1829.62</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>49.04</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>870.0700000000001</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>60.31</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>418.67</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1398.08</v>
-      </c>
-      <c r="M5">
-        <v>431.54</v>
       </c>
       <c r="N5">
         <v>431.54</v>
       </c>
       <c r="O5">
+        <v>431.54</v>
+      </c>
+      <c r="P5">
         <v>18.14</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-9.039999999999999</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>20.67</v>
-      </c>
-      <c r="R5">
-        <v>410.87</v>
       </c>
       <c r="S5">
         <v>410.87</v>
@@ -2580,18 +2682,21 @@
         <v>410.87</v>
       </c>
       <c r="U5">
-        <v>49.06</v>
+        <v>410.87</v>
       </c>
       <c r="V5">
         <v>49.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>49.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>2212.62</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>2212.62</v>
@@ -2600,66 +2705,69 @@
         <v>2212.62</v>
       </c>
       <c r="E6">
+        <v>2212.62</v>
+      </c>
+      <c r="F6">
         <v>168.29</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2380.91</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>49.33</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1058.51</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>42.84</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>451.05</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1601.73</v>
-      </c>
-      <c r="M6">
-        <v>779.1799999999999</v>
       </c>
       <c r="N6">
         <v>779.1799999999999</v>
       </c>
       <c r="O6">
+        <v>779.1799999999999</v>
+      </c>
+      <c r="P6">
         <v>37.28</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-8.34</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>36.58</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>742.6</v>
-      </c>
-      <c r="S6">
-        <v>695.71</v>
       </c>
       <c r="T6">
         <v>695.71</v>
       </c>
       <c r="U6">
-        <v>83.05</v>
+        <v>695.71</v>
       </c>
       <c r="V6">
         <v>83.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>83.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>2243.47</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>2243.47</v>
@@ -2668,46 +2776,46 @@
         <v>2243.47</v>
       </c>
       <c r="E7">
+        <v>2243.47</v>
+      </c>
+      <c r="F7">
         <v>-68.27</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2175.2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>19.31</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1048.56</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>37.41</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>322.55</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1427.83</v>
-      </c>
-      <c r="M7">
-        <v>747.37</v>
       </c>
       <c r="N7">
         <v>747.37</v>
       </c>
       <c r="O7">
+        <v>747.37</v>
+      </c>
+      <c r="P7">
         <v>96.87</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-7.9</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>86.52</v>
-      </c>
-      <c r="R7">
-        <v>660.85</v>
       </c>
       <c r="S7">
         <v>660.85</v>
@@ -2716,18 +2824,21 @@
         <v>660.85</v>
       </c>
       <c r="U7">
-        <v>78.81</v>
+        <v>660.85</v>
       </c>
       <c r="V7">
         <v>78.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>78.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>2360.51</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>2360.51</v>
@@ -2736,46 +2847,46 @@
         <v>2360.51</v>
       </c>
       <c r="E8">
+        <v>2360.51</v>
+      </c>
+      <c r="F8">
         <v>140.3</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2500.81</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>10.01</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1052.13</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>33.65</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>355.88</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1454.21</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1046.6</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1034.39</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>97.02</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-30.61</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>66.41</v>
-      </c>
-      <c r="R8">
-        <v>967.98</v>
       </c>
       <c r="S8">
         <v>967.98</v>
@@ -2784,18 +2895,21 @@
         <v>967.98</v>
       </c>
       <c r="U8">
+        <v>967.98</v>
+      </c>
+      <c r="V8">
         <v>115.4</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>115.23</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>2605.85</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>2605.85</v>
@@ -2804,46 +2918,46 @@
         <v>2605.85</v>
       </c>
       <c r="E9">
+        <v>2605.85</v>
+      </c>
+      <c r="F9">
         <v>375.03</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2980.89</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>12.74</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1253.27</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>40.12</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>350.37</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1656.49</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1324.4</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1565.89</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>471.7</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>4.96</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>476.66</v>
-      </c>
-      <c r="R9">
-        <v>1089.23</v>
       </c>
       <c r="S9">
         <v>1089.23</v>
@@ -2852,18 +2966,21 @@
         <v>1089.23</v>
       </c>
       <c r="U9">
+        <v>1089.23</v>
+      </c>
+      <c r="V9">
         <v>129.78</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>129.65</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>2937.7</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>2937.7</v>
@@ -2872,46 +2989,46 @@
         <v>2937.7</v>
       </c>
       <c r="E10">
+        <v>2937.7</v>
+      </c>
+      <c r="F10">
         <v>440.32</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3378.02</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>11.8</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1435.71</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>58.61</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>367.15</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1873.26</v>
-      </c>
-      <c r="M10">
-        <v>1504.76</v>
       </c>
       <c r="N10">
         <v>1504.76</v>
       </c>
       <c r="O10">
+        <v>1504.76</v>
+      </c>
+      <c r="P10">
         <v>478.22</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-2.72</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>475.5</v>
-      </c>
-      <c r="R10">
-        <v>1029.26</v>
       </c>
       <c r="S10">
         <v>1029.26</v>
@@ -2920,18 +3037,21 @@
         <v>1029.26</v>
       </c>
       <c r="U10">
+        <v>1029.26</v>
+      </c>
+      <c r="V10">
         <v>122.52</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>121.96</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>3159.47</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>3159.47</v>
@@ -2940,46 +3060,46 @@
         <v>3159.47</v>
       </c>
       <c r="E11">
+        <v>3159.47</v>
+      </c>
+      <c r="F11">
         <v>620.92</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3780.38</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5.19</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1576.23</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>64.34999999999999</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>403.81</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2049.58</v>
-      </c>
-      <c r="M11">
-        <v>1730.81</v>
       </c>
       <c r="N11">
         <v>1730.81</v>
       </c>
       <c r="O11">
+        <v>1730.81</v>
+      </c>
+      <c r="P11">
         <v>594.98</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-12.53</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>582.4400000000001</v>
-      </c>
-      <c r="R11">
-        <v>1148.36</v>
       </c>
       <c r="S11">
         <v>1148.36</v>
@@ -2988,18 +3108,21 @@
         <v>1148.36</v>
       </c>
       <c r="U11">
+        <v>1148.36</v>
+      </c>
+      <c r="V11">
         <v>136.56</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>135.98</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>3341.1</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>3341.1</v>
@@ -3008,46 +3131,46 @@
         <v>3341.1</v>
       </c>
       <c r="E12">
+        <v>3341.1</v>
+      </c>
+      <c r="F12">
         <v>375.9</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3716.99</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>8.619999999999999</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1597.37</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>63.44</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>433.94</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2103.37</v>
-      </c>
-      <c r="M12">
-        <v>1613.63</v>
       </c>
       <c r="N12">
         <v>1613.63</v>
       </c>
       <c r="O12">
+        <v>1613.63</v>
+      </c>
+      <c r="P12">
         <v>568.29</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-12.68</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>555.61</v>
-      </c>
-      <c r="R12">
-        <v>1058.02</v>
       </c>
       <c r="S12">
         <v>1058.02</v>
@@ -3056,18 +3179,21 @@
         <v>1058.02</v>
       </c>
       <c r="U12">
-        <v>125.38</v>
+        <v>1058.02</v>
       </c>
       <c r="V12">
         <v>125.38</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>125.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>3528.43</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>3528.43</v>
@@ -3076,46 +3202,46 @@
         <v>3528.43</v>
       </c>
       <c r="E13">
+        <v>3528.43</v>
+      </c>
+      <c r="F13">
         <v>212.87</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3741.3</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5.16</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1690.86</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>49.77</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>527.41</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2273.2</v>
-      </c>
-      <c r="M13">
-        <v>1468.1</v>
       </c>
       <c r="N13">
         <v>1468.1</v>
       </c>
       <c r="O13">
+        <v>1468.1</v>
+      </c>
+      <c r="P13">
         <v>580.96</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-10.61</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>570.35</v>
-      </c>
-      <c r="R13">
-        <v>897.76</v>
       </c>
       <c r="S13">
         <v>897.76</v>
@@ -3124,18 +3250,21 @@
         <v>897.76</v>
       </c>
       <c r="U13">
+        <v>897.76</v>
+      </c>
+      <c r="V13">
         <v>105.95</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>105.38</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>3736.31</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>3736.31</v>
@@ -3144,46 +3273,46 @@
         <v>3736.31</v>
       </c>
       <c r="E14">
+        <v>3736.31</v>
+      </c>
+      <c r="F14">
         <v>163.66</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3899.97</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5.12</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1810.86</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>66.8</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>550.85</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2433.64</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1466.33</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1682.59</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>438.39</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-43.89</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>394.5</v>
-      </c>
-      <c r="R14">
-        <v>1288.1</v>
       </c>
       <c r="S14">
         <v>1288.1</v>
@@ -3192,18 +3321,21 @@
         <v>1288.1</v>
       </c>
       <c r="U14">
+        <v>1288.1</v>
+      </c>
+      <c r="V14">
         <v>151.57</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>151.06</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>3861.73</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>3861.73</v>
@@ -3212,46 +3344,46 @@
         <v>3861.73</v>
       </c>
       <c r="E15">
+        <v>3861.73</v>
+      </c>
+      <c r="F15">
         <v>88.63</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3950.35</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>402.15</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1858.67</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>57.35</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>145.27</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2463.44</v>
-      </c>
-      <c r="M15">
-        <v>1486.91</v>
       </c>
       <c r="N15">
         <v>1486.91</v>
       </c>
       <c r="O15">
+        <v>1486.91</v>
+      </c>
+      <c r="P15">
         <v>477.58</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3.35</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>480.92</v>
-      </c>
-      <c r="R15">
-        <v>1005.99</v>
       </c>
       <c r="S15">
         <v>1005.99</v>
@@ -3260,18 +3392,21 @@
         <v>1005.99</v>
       </c>
       <c r="U15">
+        <v>1005.99</v>
+      </c>
+      <c r="V15">
         <v>117.91</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>117.21</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>3580.9</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>3580.9</v>
@@ -3280,46 +3415,46 @@
         <v>3580.9</v>
       </c>
       <c r="E16">
+        <v>3580.9</v>
+      </c>
+      <c r="F16">
         <v>138.95</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3719.85</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>310.85</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1189.61</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>50.2</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>182.78</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1733.43</v>
-      </c>
-      <c r="M16">
-        <v>1986.42</v>
       </c>
       <c r="N16">
         <v>1986.42</v>
       </c>
       <c r="O16">
+        <v>1986.42</v>
+      </c>
+      <c r="P16">
         <v>642.89</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>61.05</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>703.95</v>
-      </c>
-      <c r="R16">
-        <v>1282.47</v>
       </c>
       <c r="S16">
         <v>1282.47</v>
@@ -3328,18 +3463,21 @@
         <v>1282.47</v>
       </c>
       <c r="U16">
+        <v>1282.47</v>
+      </c>
+      <c r="V16">
         <v>149.77</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>149.01</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>3525.51</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>3525.51</v>
@@ -3348,46 +3486,46 @@
         <v>3525.51</v>
       </c>
       <c r="E17">
+        <v>3525.51</v>
+      </c>
+      <c r="F17">
         <v>169.16</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3694.67</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>296.11</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1190.92</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>8.02</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>83.17</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>107.87</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1686.09</v>
-      </c>
-      <c r="M17">
-        <v>2008.58</v>
       </c>
       <c r="N17">
         <v>2008.58</v>
       </c>
       <c r="O17">
+        <v>2008.58</v>
+      </c>
+      <c r="P17">
         <v>456.07</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-30.15</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>425.92</v>
-      </c>
-      <c r="R17">
-        <v>1582.66</v>
       </c>
       <c r="S17">
         <v>1582.66</v>
@@ -3396,18 +3534,21 @@
         <v>1582.66</v>
       </c>
       <c r="U17">
+        <v>1582.66</v>
+      </c>
+      <c r="V17">
         <v>184.39</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>183.62</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>3645.21</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>3645.21</v>
@@ -3416,46 +3557,46 @@
         <v>3645.21</v>
       </c>
       <c r="E18">
+        <v>3645.21</v>
+      </c>
+      <c r="F18">
         <v>116.48</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3761.69</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>169.99</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1244.32</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4.8</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>80.2</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>74.5</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1573.81</v>
-      </c>
-      <c r="M18">
-        <v>2187.88</v>
       </c>
       <c r="N18">
         <v>2187.88</v>
       </c>
       <c r="O18">
+        <v>2187.88</v>
+      </c>
+      <c r="P18">
         <v>557.08</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-8.48</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>548.6</v>
-      </c>
-      <c r="R18">
-        <v>1639.29</v>
       </c>
       <c r="S18">
         <v>1639.29</v>
@@ -3464,18 +3605,21 @@
         <v>1639.29</v>
       </c>
       <c r="U18">
+        <v>1639.29</v>
+      </c>
+      <c r="V18">
         <v>190.64</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>189.8</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>3896.13</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>3896.13</v>
@@ -3484,46 +3628,46 @@
         <v>3896.13</v>
       </c>
       <c r="E19">
+        <v>3896.13</v>
+      </c>
+      <c r="F19">
         <v>256.01</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4152.15</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>145.52</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1454.55</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3.23</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>67.98</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>104.71</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1775.99</v>
-      </c>
-      <c r="M19">
-        <v>2376.15</v>
       </c>
       <c r="N19">
         <v>2376.15</v>
       </c>
       <c r="O19">
+        <v>2376.15</v>
+      </c>
+      <c r="P19">
         <v>573.03</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-8.09</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>564.9400000000001</v>
-      </c>
-      <c r="R19">
-        <v>1811.21</v>
       </c>
       <c r="S19">
         <v>1811.21</v>
@@ -3532,18 +3676,21 @@
         <v>1811.21</v>
       </c>
       <c r="U19">
+        <v>1811.21</v>
+      </c>
+      <c r="V19">
         <v>210.19</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>209.08</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>4389.14</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>4389.14</v>
@@ -3552,46 +3699,46 @@
         <v>4389.14</v>
       </c>
       <c r="E20">
+        <v>4389.14</v>
+      </c>
+      <c r="F20">
         <v>119.08</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4508.22</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>132.88</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1771.92</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>3.21</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>58.39</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>198.62</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2165.02</v>
-      </c>
-      <c r="M20">
-        <v>2343.2</v>
       </c>
       <c r="N20">
         <v>2343.2</v>
       </c>
       <c r="O20">
+        <v>2343.2</v>
+      </c>
+      <c r="P20">
         <v>580.9400000000001</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-10.25</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>570.6900000000001</v>
-      </c>
-      <c r="R20">
-        <v>1772.51</v>
       </c>
       <c r="S20">
         <v>1772.51</v>
@@ -3600,18 +3747,21 @@
         <v>1772.51</v>
       </c>
       <c r="U20">
+        <v>1772.51</v>
+      </c>
+      <c r="V20">
         <v>205.25</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>204.37</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>5025.28</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>5025.28</v>
@@ -3620,46 +3770,46 @@
         <v>5025.28</v>
       </c>
       <c r="E21">
+        <v>5025.28</v>
+      </c>
+      <c r="F21">
         <v>-1.17</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5024.11</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>187.22</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1917.88</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.11</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>59.76</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>220.98</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2387.95</v>
-      </c>
-      <c r="M21">
-        <v>2636.16</v>
       </c>
       <c r="N21">
         <v>2636.16</v>
       </c>
       <c r="O21">
+        <v>2636.16</v>
+      </c>
+      <c r="P21">
         <v>634.89</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-26.65</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>608.24</v>
-      </c>
-      <c r="R21">
-        <v>2027.92</v>
       </c>
       <c r="S21">
         <v>2027.92</v>
@@ -3668,9 +3818,12 @@
         <v>2027.92</v>
       </c>
       <c r="U21">
+        <v>2027.92</v>
+      </c>
+      <c r="V21">
         <v>234.27</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>232.78</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>827.36</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>763.55</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>906.95</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>809.58</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>806.27</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>818.3</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>887.27</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>832.51</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>893.62</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>915.03</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>1010.32</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>907.8200000000001</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>953.46</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>864.71</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>1023.64</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>1002.93</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>905.8099999999999</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
       </c>
       <c r="D19">
         <v>929.34</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>985.4299999999999</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>877.84</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>834.8</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>882.83</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>934.63</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>848.92</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>835.6</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>906.36</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>1003.92</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>856.45</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>888.09</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>896.75</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>1041.16</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>956.6900000000001</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>939.9299999999999</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>958.35</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>1058.78</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>1001.39</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>1083.11</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>1112.3</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>1117.01</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>1080.09</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>1374.84</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>1212.55</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>1295.4</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>1208.8</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>1305.4</v>
@@ -6960,220 +7113,229 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>120.57</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>36.55</v>
-      </c>
-      <c r="D2">
-        <v>33</v>
       </c>
       <c r="E2">
         <v>33</v>
       </c>
       <c r="F2">
+        <v>33</v>
+      </c>
+      <c r="G2">
         <v>26.39</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>30.31</v>
-      </c>
-      <c r="H2">
-        <v>27.36</v>
       </c>
       <c r="I2">
         <v>27.36</v>
       </c>
       <c r="J2">
+        <v>27.36</v>
+      </c>
+      <c r="K2">
         <v>21.89</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>17.56</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>12.94</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>18.94</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>16.69</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>81.06</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3877.39</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>14.17</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>151.24</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>43.03</v>
-      </c>
-      <c r="D3">
-        <v>37.95</v>
       </c>
       <c r="E3">
         <v>37.95</v>
       </c>
       <c r="F3">
+        <v>37.95</v>
+      </c>
+      <c r="G3">
         <v>31.56</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>28.45</v>
-      </c>
-      <c r="H3">
-        <v>25.09</v>
       </c>
       <c r="I3">
         <v>25.09</v>
       </c>
       <c r="J3">
+        <v>25.09</v>
+      </c>
+      <c r="K3">
         <v>20.86</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>17.67</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>12.99</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>15.88</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>13.68</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>84.12</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>9526.58</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>29.02</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>186.38</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>52.54</v>
-      </c>
-      <c r="D4">
-        <v>45.75</v>
       </c>
       <c r="E4">
         <v>45.75</v>
       </c>
       <c r="F4">
+        <v>45.75</v>
+      </c>
+      <c r="G4">
         <v>42.57</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>28.18</v>
-      </c>
-      <c r="H4">
-        <v>24.54</v>
       </c>
       <c r="I4">
         <v>24.54</v>
       </c>
       <c r="J4">
+        <v>24.54</v>
+      </c>
+      <c r="K4">
         <v>22.83</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>15.03</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>11.71</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
@@ -7181,55 +7343,58 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>16847.85</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>38.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>214.09</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>58.73</v>
-      </c>
-      <c r="D5">
-        <v>51.53</v>
       </c>
       <c r="E5">
         <v>51.53</v>
       </c>
       <c r="F5">
+        <v>51.53</v>
+      </c>
+      <c r="G5">
         <v>49.06</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>27.43</v>
-      </c>
-      <c r="H5">
-        <v>24.06</v>
       </c>
       <c r="I5">
         <v>24.06</v>
       </c>
       <c r="J5">
+        <v>24.06</v>
+      </c>
+      <c r="K5">
         <v>22.91</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>14.6</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>12.51</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -7237,55 +7402,58 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>100</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>7261.9</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>14.76</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>264.13</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>98.13</v>
-      </c>
-      <c r="D6">
-        <v>93.02</v>
       </c>
       <c r="E6">
         <v>93.02</v>
       </c>
       <c r="F6">
+        <v>93.02</v>
+      </c>
+      <c r="G6">
         <v>83.05</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>37.15</v>
-      </c>
-      <c r="H6">
-        <v>35.21</v>
       </c>
       <c r="I6">
         <v>35.21</v>
       </c>
       <c r="J6">
+        <v>35.21</v>
+      </c>
+      <c r="K6">
         <v>31.44</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>19.82</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>16.49</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
@@ -7293,55 +7461,58 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>100</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5127.69</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>6.24</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>267.54</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>93.59</v>
-      </c>
-      <c r="D7">
-        <v>89.13</v>
       </c>
       <c r="E7">
         <v>89.13</v>
       </c>
       <c r="F7">
+        <v>89.13</v>
+      </c>
+      <c r="G7">
         <v>78.81</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>34.98</v>
-      </c>
-      <c r="H7">
-        <v>33.31</v>
       </c>
       <c r="I7">
         <v>33.31</v>
       </c>
       <c r="J7">
+        <v>33.31</v>
+      </c>
+      <c r="K7">
         <v>29.45</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>15.82</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>13.79</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>0</v>
       </c>
@@ -7349,55 +7520,58 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>100</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>17531.56</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>22.34</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>281.37</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>128.76</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>124.75</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>123.3</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>115.38</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>45.76</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>44.33</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>43.82</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>41</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>18.79</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>16.62</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -7405,55 +7579,58 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>100</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>14107.54</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>13.06</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>310.32</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>162.49</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>157.71</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>186.47</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>129.71</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>52.36</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>50.82</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>60.09</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>41.79</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>17.43</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>15.31</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
@@ -7461,55 +7638,58 @@
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>100</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>18491.95</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>13.55</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>349.45</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>185.97</v>
-      </c>
-      <c r="D10">
-        <v>179</v>
       </c>
       <c r="E10">
         <v>179</v>
       </c>
       <c r="F10">
+        <v>179</v>
+      </c>
+      <c r="G10">
         <v>122.43</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>53.21</v>
-      </c>
-      <c r="H10">
-        <v>51.22</v>
       </c>
       <c r="I10">
         <v>51.22</v>
       </c>
       <c r="J10">
+        <v>51.22</v>
+      </c>
+      <c r="K10">
         <v>35.03</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>14.11</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>12.36</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
@@ -7517,55 +7697,58 @@
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>100</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>16455.9</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>10.53</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>375.48</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>213.34</v>
-      </c>
-      <c r="D11">
-        <v>205.7</v>
       </c>
       <c r="E11">
         <v>205.7</v>
       </c>
       <c r="F11">
+        <v>205.7</v>
+      </c>
+      <c r="G11">
         <v>136.48</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>56.81</v>
-      </c>
-      <c r="H11">
-        <v>54.78</v>
       </c>
       <c r="I11">
         <v>54.78</v>
       </c>
       <c r="J11">
+        <v>54.78</v>
+      </c>
+      <c r="K11">
         <v>36.34</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>13.58</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>11.75</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
         <v>0</v>
       </c>
@@ -7573,335 +7756,353 @@
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>100</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>19782.73</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>11.02</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>394.86</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>198.2</v>
-      </c>
-      <c r="D12">
-        <v>190.7</v>
       </c>
       <c r="E12">
         <v>190.7</v>
       </c>
       <c r="F12">
+        <v>190.7</v>
+      </c>
+      <c r="G12">
         <v>125.04</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>50.19</v>
-      </c>
-      <c r="H12">
-        <v>48.29</v>
       </c>
       <c r="I12">
         <v>48.29</v>
       </c>
       <c r="J12">
+        <v>48.29</v>
+      </c>
+      <c r="K12">
         <v>31.66</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>35.37</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>18.23</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>531.63</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>501.56</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-431.63</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>24548.45</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>14.64</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>415.81</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>178.88</v>
-      </c>
-      <c r="D13">
-        <v>173.01</v>
       </c>
       <c r="E13">
         <v>173.01</v>
       </c>
       <c r="F13">
+        <v>173.01</v>
+      </c>
+      <c r="G13">
         <v>105.8</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>43.01</v>
-      </c>
-      <c r="H13">
-        <v>41.6</v>
       </c>
       <c r="I13">
         <v>41.6</v>
       </c>
       <c r="J13">
+        <v>41.6</v>
+      </c>
+      <c r="K13">
         <v>25.44</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>22.68</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>17.87</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>169.97</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>161.04</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-69.97</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>27744.78</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>18.28</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>439.02</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>180.14</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>172.3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>197.71</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>151.35</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>41.03</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>39.24</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>45.03</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>34.47</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>48.13</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>25.24</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>178.31</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>169.52</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-78.31</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>30010.27</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>19.57</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>452.11</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>180.79</v>
-      </c>
-      <c r="D15">
-        <v>174.08</v>
       </c>
       <c r="E15">
         <v>174.08</v>
       </c>
       <c r="F15">
+        <v>174.08</v>
+      </c>
+      <c r="G15">
         <v>117.78</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>39.98</v>
-      </c>
-      <c r="H15">
-        <v>38.5</v>
       </c>
       <c r="I15">
         <v>38.5</v>
       </c>
       <c r="J15">
+        <v>38.5</v>
+      </c>
+      <c r="K15">
         <v>26.05</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>26.42</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>21.63</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>0.27</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.25</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>99.73</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>30071.05</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>19.47</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>417.45</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>237.42</v>
-      </c>
-      <c r="D16">
-        <v>231.57</v>
       </c>
       <c r="E16">
         <v>231.57</v>
       </c>
       <c r="F16">
+        <v>231.57</v>
+      </c>
+      <c r="G16">
         <v>149.51</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>56.87</v>
-      </c>
-      <c r="H16">
-        <v>55.47</v>
       </c>
       <c r="I16">
         <v>55.47</v>
       </c>
       <c r="J16">
+        <v>55.47</v>
+      </c>
+      <c r="K16">
         <v>35.81</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>33.05</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>28.84</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>86.8</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>83.53</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>13.2</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>27350.64</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>13.43</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>410.52</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>244.5</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>234.82</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>233.88</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>184.29</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>59.55</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>57.2</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>56.97</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>44.89</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>28.73</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>26.08</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
         <v>0</v>
       </c>
@@ -7912,164 +8113,173 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>14200.76</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>6.76</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>423.56</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>264.1</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>254.78</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>254.22</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>190.48</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>62.35</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>60.15</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>60.02</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>44.97</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>29.03</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>26.49</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>94.38</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>89.97</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>5.62</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>24200.92</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>10.65</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>451.75</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>283.77</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>275.88</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>275.51</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>210</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>62.81</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>61.07</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>60.98</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>46.48</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>31.21</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>28.11</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>95.09</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>91.65000000000001</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4.91</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>27569.33</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>11.26</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>508.01</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>278.34</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>271.58</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>271.21</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>205.16</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>54.78</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>53.45</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>53.38</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>40.38</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>29.51</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>26.7</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
         <v>0</v>
       </c>
@@ -8080,65 +8290,71 @@
         <v>0</v>
       </c>
       <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>24747.11</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>10.29</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>579.8</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>311.29</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>304.4</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>304.15</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>233.98</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>53.68</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>52.49</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>52.45</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>40.35</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>32.79</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>29.44</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>95.95</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>93.20999999999999</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4.05</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>72689.50999999999</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>26.94</v>
       </c>
     </row>
